--- a/Planning formation.xlsx
+++ b/Planning formation.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\formation\SOPRA_ACADEMY\Angular JS\formation_angular\nov_2016\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
     <sheet name="Participants" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
   <si>
     <t>#</t>
   </si>
@@ -69,9 +64,6 @@
     <t>Directives</t>
   </si>
   <si>
-    <t>05-todo-a</t>
-  </si>
-  <si>
     <t>Filtres</t>
   </si>
   <si>
@@ -84,18 +76,12 @@
     <t>Promesses</t>
   </si>
   <si>
-    <t>07-todo-c</t>
-  </si>
-  <si>
     <t>$http</t>
   </si>
   <si>
     <t>$resource</t>
   </si>
   <si>
-    <t>Custom directives</t>
-  </si>
-  <si>
     <t>Custom services</t>
   </si>
   <si>
@@ -252,33 +238,57 @@
     <t>Number</t>
   </si>
   <si>
-    <t>00-json-server
-08-todo-d</t>
-  </si>
-  <si>
-    <t>01-hello-world-a
-02-hello-world-b
-03-controller-a
-04-controller-b</t>
-  </si>
-  <si>
-    <t>Custom Component</t>
-  </si>
-  <si>
     <t>Introduction (dont tour de table)</t>
   </si>
   <si>
-    <t>06-todo-b</t>
+    <t>01_hello-world_templating
+02_hello-world_binding
+03_pizza_controller-scope
+04_pizza_controller-john-papa</t>
+  </si>
+  <si>
+    <t>05_todo-list_built-in-directives</t>
+  </si>
+  <si>
+    <t>06_todo-list_filters</t>
+  </si>
+  <si>
+    <t>07_pizza_validation</t>
+  </si>
+  <si>
+    <t>09_todo-list_promises</t>
+  </si>
+  <si>
+    <t>00_json-server
+10_todo-list_$http</t>
+  </si>
+  <si>
+    <t>00_json-server
+11_todo-list_$resource</t>
+  </si>
+  <si>
+    <t>00_json-server
+12_heroes_custom-components</t>
+  </si>
+  <si>
+    <t>00_json-server
+13_todo-list_custom-services</t>
+  </si>
+  <si>
+    <t>Custom directives &amp; components</t>
+  </si>
+  <si>
+    <t>a améliorer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -541,6 +551,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -577,8 +590,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,7 +653,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -675,7 +688,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -852,21 +865,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="7.140625" style="20" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="27"/>
@@ -877,12 +890,12 @@
     <col min="10" max="16384" width="11.42578125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="20" customFormat="1">
       <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>4</v>
@@ -903,11 +916,11 @@
         <v>6</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -916,40 +929,40 @@
       <c r="C2" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="35"/>
       <c r="B3" s="2">
         <f>B2+C2</f>
         <v>0.39583333333333337</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
-    </row>
-    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
+    </row>
+    <row r="4" spans="1:9" ht="28.5">
+      <c r="A4" s="35"/>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B27" si="0">B3+C3</f>
+        <f t="shared" ref="B4:B26" si="0">B3+C3</f>
         <v>0.39583333333333337</v>
       </c>
       <c r="C4" s="21">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -958,15 +971,15 @@
         <v>11</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:9">
+      <c r="A5" s="35"/>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -984,15 +997,15 @@
         <v>10</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+    <row r="6" spans="1:9">
+      <c r="A6" s="35"/>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>0.43055555555555558</v>
@@ -1000,17 +1013,17 @@
       <c r="C6" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
-    </row>
-    <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="D6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="1:9" ht="57">
+      <c r="A7" s="35"/>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>0.44097222222222227</v>
@@ -1028,17 +1041,17 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="35"/>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>0.50347222222222232</v>
@@ -1046,17 +1059,17 @@
       <c r="C8" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="D8" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="35"/>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>0.54513888888888895</v>
@@ -1074,17 +1087,17 @@
         <v>11</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="35"/>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>0.59722222222222232</v>
@@ -1093,7 +1106,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
@@ -1102,17 +1115,17 @@
         <v>10</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="35"/>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>0.63888888888888895</v>
@@ -1120,17 +1133,17 @@
       <c r="C11" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
+      <c r="D11" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="35"/>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>0.64930555555555558</v>
@@ -1139,7 +1152,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="3">
         <v>6</v>
@@ -1147,16 +1160,18 @@
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="30">
         <v>0.5</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="23"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="H12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="36"/>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>0.71180555555555558</v>
@@ -1164,17 +1179,17 @@
       <c r="C13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="33">
+      <c r="D13" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="34">
         <v>2</v>
       </c>
       <c r="B14" s="2">
@@ -1183,17 +1198,17 @@
       <c r="C14" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="35"/>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>0.38541666666666669</v>
@@ -1202,7 +1217,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="3">
         <v>7</v>
@@ -1211,15 +1226,15 @@
         <v>11</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="35"/>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -1228,7 +1243,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="3">
         <v>8</v>
@@ -1237,17 +1252,17 @@
         <v>10</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="35"/>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>0.44791666666666669</v>
@@ -1255,17 +1270,17 @@
       <c r="C17" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
-    </row>
-    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
+      <c r="D17" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33"/>
+    </row>
+    <row r="18" spans="1:9" ht="28.5">
+      <c r="A18" s="35"/>
       <c r="B18" s="17">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
@@ -1274,7 +1289,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E18" s="3">
         <v>9</v>
@@ -1283,17 +1298,17 @@
         <v>11</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.5">
+      <c r="A19" s="35"/>
       <c r="B19" s="2">
         <f>B18+C18</f>
         <v>0.5</v>
@@ -1302,7 +1317,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E19" s="3">
         <v>10</v>
@@ -1310,16 +1325,18 @@
       <c r="F19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
+      <c r="G19" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="35"/>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -1327,26 +1344,26 @@
       <c r="C20" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D20" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
+      <c r="D20" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33"/>
+    </row>
+    <row r="21" spans="1:9" ht="28.5">
+      <c r="A21" s="35"/>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="C21" s="21">
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="E21" s="3">
         <v>11</v>
@@ -1355,24 +1372,26 @@
         <v>10</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="23"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
+        <v>26</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="28.5">
+      <c r="A22" s="35"/>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>0.62499999999999989</v>
+        <v>0.64583333333333326</v>
       </c>
       <c r="C22" s="21">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E22" s="3">
         <v>12</v>
@@ -1381,130 +1400,106 @@
         <v>11</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
+        <v>26</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="35"/>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>0.64583333333333326</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C23" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
+      <c r="D23" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="33"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="35"/>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>0.65624999999999989</v>
+        <v>0.67708333333333326</v>
       </c>
       <c r="C24" s="21">
-        <v>2.0833333333333332E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="E24" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1">
+      <c r="A25" s="35"/>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="C25" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="23"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="2">
-        <f t="shared" si="0"/>
-        <v>0.67708333333333326</v>
-      </c>
-      <c r="C25" s="21">
-        <v>3.125E-2</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="3">
-        <v>14</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="23"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="36"/>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>0.70833333333333326</v>
-      </c>
-      <c r="C26" s="21">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="41"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="2">
-        <f t="shared" si="0"/>
         <v>0.71874999999999989</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C26" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="32"/>
+      <c r="D26" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="D13:I13"/>
-    <mergeCell ref="A14:A27"/>
+    <mergeCell ref="A14:A26"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="D23:I23"/>
     <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D25:I25"/>
     <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:I27"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="D11:I11"/>
@@ -1517,14 +1512,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="8"/>
@@ -1533,177 +1528,177 @@
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -1711,47 +1706,47 @@
         <v>8</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Planning formation.xlsx
+++ b/Planning formation.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\formation\SOPRA_ACADEMY\Angular JS\formation_angular\repo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
@@ -10,9 +15,9 @@
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
     <sheet name="Participants" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="85">
   <si>
     <t>#</t>
   </si>
@@ -280,15 +285,18 @@
   <si>
     <t>a améliorer</t>
   </si>
+  <si>
+    <t>I18N</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,6 +562,9 @@
     <xf numFmtId="9" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -590,8 +601,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,21 +882,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="7.140625" style="20" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="27"/>
@@ -890,7 +907,7 @@
     <col min="10" max="16384" width="11.42578125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="20" customFormat="1">
+    <row r="1" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
@@ -919,8 +936,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="34">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -929,33 +946,33 @@
       <c r="C2" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="35"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="36"/>
       <c r="B3" s="2">
         <f>B2+C2</f>
         <v>0.39583333333333337</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" ht="28.5">
-      <c r="A4" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="36"/>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B26" si="0">B3+C3</f>
+        <f t="shared" ref="B4:B27" si="0">B3+C3</f>
         <v>0.39583333333333337</v>
       </c>
       <c r="C4" s="21">
@@ -978,8 +995,8 @@
       </c>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="35"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="36"/>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -1004,8 +1021,8 @@
       </c>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="35"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="36"/>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>0.43055555555555558</v>
@@ -1013,17 +1030,17 @@
       <c r="C6" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
-    </row>
-    <row r="7" spans="1:9" ht="57">
-      <c r="A7" s="35"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="36"/>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>0.44097222222222227</v>
@@ -1050,8 +1067,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="35"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="36"/>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>0.50347222222222232</v>
@@ -1059,23 +1076,23 @@
       <c r="C8" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="35"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="36"/>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>0.54513888888888895</v>
       </c>
       <c r="C9" s="21">
-        <v>5.2083333333333336E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>13</v>
@@ -1096,14 +1113,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="36"/>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>0.59722222222222232</v>
+        <v>0.58680555555555558</v>
       </c>
       <c r="C10" s="21">
-        <v>4.1666666666666664E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>14</v>
@@ -1124,29 +1141,29 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="35"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="36"/>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>0.63888888888888895</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="C11" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="35"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="36"/>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>0.64930555555555558</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="C12" s="21">
         <v>6.25E-2</v>
@@ -1170,341 +1187,365 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="C13" s="21">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="45"/>
+      <c r="F13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="46"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
         <v>0.71180555555555558</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="34">
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="35">
         <v>2</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
         <v>0.375</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C15" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D15" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="35"/>
-      <c r="B15" s="2">
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="36"/>
+      <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>0.38541666666666669</v>
-      </c>
-      <c r="C15" s="21">
-        <v>3.125E-2</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="3">
-        <v>7</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="23"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="35"/>
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
       </c>
       <c r="C16" s="21">
         <v>3.125E-2</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="3">
+        <v>7</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="36"/>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C17" s="21">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>8</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="35"/>
-      <c r="B17" s="2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="36"/>
+      <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>0.44791666666666669</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C18" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D18" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
-    </row>
-    <row r="18" spans="1:9" ht="28.5">
-      <c r="A18" s="35"/>
-      <c r="B18" s="17">
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="36"/>
+      <c r="B19" s="17">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C19" s="25">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <v>9</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G19" s="26" t="s">
         <v>26</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="28.5">
-      <c r="A19" s="35"/>
-      <c r="B19" s="2">
-        <f>B18+C18</f>
-        <v>0.5</v>
-      </c>
-      <c r="C19" s="21">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="3">
-        <v>10</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>83</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="35"/>
+      <c r="I19" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="36"/>
       <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54166666666666663</v>
+        <f>B19+C19</f>
+        <v>0.5</v>
       </c>
       <c r="C20" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="36"/>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C21" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
-    </row>
-    <row r="21" spans="1:9" ht="28.5">
-      <c r="A21" s="35"/>
-      <c r="B21" s="2">
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="36"/>
+      <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C22" s="21">
         <v>6.25E-2</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="3">
         <v>11</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="28.5">
-      <c r="A22" s="35"/>
-      <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.64583333333333326</v>
-      </c>
-      <c r="C22" s="21">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="3">
-        <v>12</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="36"/>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.64583333333333326</v>
+      </c>
+      <c r="C23" s="21">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="3">
+        <v>12</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I23" s="23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="35"/>
-      <c r="B23" s="2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="36"/>
+      <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C24" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D24" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="35"/>
-      <c r="B24" s="2">
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="36"/>
+      <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>0.67708333333333326</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C25" s="21">
         <v>3.125E-2</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="3">
         <v>14</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G25" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H25" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="23"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1">
-      <c r="A25" s="35"/>
-      <c r="B25" s="2">
-        <f t="shared" si="0"/>
-        <v>0.70833333333333326</v>
-      </c>
-      <c r="C25" s="21">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="36"/>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="C26" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="37"/>
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
         <v>0.71874999999999989</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C27" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D27" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="A14:A26"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="A15:A27"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D21:I21"/>
     <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D27:I27"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="A2:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1512,14 +1553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="8"/>
@@ -1528,7 +1569,7 @@
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1545,7 +1586,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1562,7 +1603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1579,7 +1620,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1596,7 +1637,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1613,7 +1654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -1630,7 +1671,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -1647,7 +1688,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -1664,7 +1705,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -1681,7 +1722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -1698,7 +1739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -1715,7 +1756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -1732,7 +1773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>12</v>
       </c>

--- a/Planning formation.xlsx
+++ b/Planning formation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\formation\SOPRA_ACADEMY\Angular JS\formation_angular\repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\formation-angularjs1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -565,6 +565,15 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -600,15 +609,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -893,7 +893,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -937,7 +937,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="35">
+      <c r="A2" s="38">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -946,31 +946,31 @@
       <c r="C2" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="2">
         <f>B2+C2</f>
         <v>0.39583333333333337</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="2">
         <f t="shared" ref="B4:B27" si="0">B3+C3</f>
         <v>0.39583333333333337</v>
@@ -996,7 +996,7 @@
       <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -1022,7 +1022,7 @@
       <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>0.43055555555555558</v>
@@ -1030,17 +1030,17 @@
       <c r="C6" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>0.44097222222222227</v>
@@ -1057,8 +1057,8 @@
       <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>27</v>
+      <c r="G7" s="31" t="s">
+        <v>83</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>27</v>
@@ -1068,7 +1068,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>0.50347222222222232</v>
@@ -1076,17 +1076,17 @@
       <c r="C8" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>0.54513888888888895</v>
@@ -1114,7 +1114,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>0.58680555555555558</v>
@@ -1142,7 +1142,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>0.61805555555555558</v>
@@ -1150,17 +1150,17 @@
       <c r="C11" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>0.62847222222222221</v>
@@ -1188,7 +1188,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>0.69097222222222221</v>
@@ -1196,10 +1196,10 @@
       <c r="C13" s="21">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="45"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="5" t="s">
         <v>10</v>
       </c>
@@ -1209,10 +1209,10 @@
       <c r="H13" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="46"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>0.71180555555555558</v>
@@ -1220,17 +1220,17 @@
       <c r="C14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="35">
+      <c r="A15" s="38">
         <v>2</v>
       </c>
       <c r="B15" s="2">
@@ -1239,17 +1239,17 @@
       <c r="C15" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>0.38541666666666669</v>
@@ -1275,7 +1275,7 @@
       <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -1303,7 +1303,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>0.44791666666666669</v>
@@ -1311,17 +1311,17 @@
       <c r="C18" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
     </row>
     <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="17">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
@@ -1349,7 +1349,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="2">
         <f>B19+C19</f>
         <v>0.5</v>
@@ -1366,8 +1366,8 @@
       <c r="F20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="31" t="s">
-        <v>83</v>
+      <c r="G20" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>27</v>
@@ -1377,7 +1377,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -1385,17 +1385,17 @@
       <c r="C21" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="22" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
@@ -1412,8 +1412,8 @@
       <c r="F22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="26" t="s">
-        <v>26</v>
+      <c r="G22" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="H22" s="31" t="s">
         <v>83</v>
@@ -1423,7 +1423,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>0.64583333333333326</v>
@@ -1451,7 +1451,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
@@ -1459,17 +1459,17 @@
       <c r="C24" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="34"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>0.67708333333333326</v>
@@ -1495,7 +1495,7 @@
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>0.70833333333333326</v>
@@ -1503,17 +1503,17 @@
       <c r="C26" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>0.71874999999999989</v>
@@ -1521,14 +1521,14 @@
       <c r="C27" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="34"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/Planning formation.xlsx
+++ b/Planning formation.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\formation-angularjs1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
     <sheet name="Participants" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
   <si>
     <t>#</t>
   </si>
@@ -292,11 +287,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -609,6 +604,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,21 +880,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="7.140625" style="20" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="27"/>
@@ -907,7 +905,7 @@
     <col min="10" max="16384" width="11.42578125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="20" customFormat="1">
       <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
@@ -936,7 +934,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -955,7 +953,7 @@
       <c r="H2" s="42"/>
       <c r="I2" s="43"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="39"/>
       <c r="B3" s="2">
         <f>B2+C2</f>
@@ -969,7 +967,7 @@
       <c r="H3" s="42"/>
       <c r="I3" s="43"/>
     </row>
-    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="28.5">
       <c r="A4" s="39"/>
       <c r="B4" s="2">
         <f t="shared" ref="B4:B27" si="0">B3+C3</f>
@@ -995,7 +993,7 @@
       </c>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="39"/>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
@@ -1021,7 +1019,7 @@
       </c>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="39"/>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
@@ -1039,7 +1037,7 @@
       <c r="H6" s="36"/>
       <c r="I6" s="37"/>
     </row>
-    <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="57">
       <c r="A7" s="39"/>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
@@ -1067,7 +1065,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="39"/>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
@@ -1085,7 +1083,7 @@
       <c r="H8" s="36"/>
       <c r="I8" s="37"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="39"/>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
@@ -1113,7 +1111,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="39"/>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
@@ -1141,7 +1139,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="39"/>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
@@ -1159,7 +1157,7 @@
       <c r="H11" s="36"/>
       <c r="I11" s="37"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="39"/>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
@@ -1187,7 +1185,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="39"/>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
@@ -1211,7 +1209,7 @@
       </c>
       <c r="I13" s="34"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="40"/>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
@@ -1229,7 +1227,7 @@
       <c r="H14" s="36"/>
       <c r="I14" s="37"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>2</v>
       </c>
@@ -1248,7 +1246,7 @@
       <c r="H15" s="42"/>
       <c r="I15" s="43"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="39"/>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
@@ -1274,7 +1272,7 @@
       </c>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="39"/>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
@@ -1302,7 +1300,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="39"/>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
@@ -1320,7 +1318,7 @@
       <c r="H18" s="36"/>
       <c r="I18" s="37"/>
     </row>
-    <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="28.5">
       <c r="A19" s="39"/>
       <c r="B19" s="17">
         <f t="shared" si="0"/>
@@ -1348,7 +1346,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="28.5">
       <c r="A20" s="39"/>
       <c r="B20" s="2">
         <f>B19+C19</f>
@@ -1376,7 +1374,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="39"/>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
@@ -1394,7 +1392,7 @@
       <c r="H21" s="36"/>
       <c r="I21" s="37"/>
     </row>
-    <row r="22" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="28.5">
       <c r="A22" s="39"/>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
@@ -1422,7 +1420,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="28.5">
       <c r="A23" s="39"/>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
@@ -1450,7 +1448,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="39"/>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
@@ -1468,7 +1466,7 @@
       <c r="H24" s="36"/>
       <c r="I24" s="37"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="39"/>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
@@ -1486,15 +1484,15 @@
       <c r="F25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="26" t="s">
-        <v>26</v>
+      <c r="G25" s="47">
+        <v>0.9</v>
       </c>
       <c r="H25" s="26" t="s">
         <v>26</v>
       </c>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15" customHeight="1">
       <c r="A26" s="39"/>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
@@ -1512,7 +1510,7 @@
       <c r="H26" s="45"/>
       <c r="I26" s="46"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="40"/>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
@@ -1553,14 +1551,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="8"/>
@@ -1569,7 +1567,7 @@
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1586,7 +1584,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1603,7 +1601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1620,7 +1618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1637,7 +1635,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1654,7 +1652,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -1671,7 +1669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -1688,7 +1686,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -1705,7 +1703,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -1722,7 +1720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -1739,7 +1737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -1756,7 +1754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -1773,7 +1771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="16">
         <v>12</v>
       </c>

--- a/Planning formation.xlsx
+++ b/Planning formation.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\formation-angularjs1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
@@ -10,9 +15,9 @@
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
     <sheet name="Participants" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="85">
   <si>
     <t>#</t>
   </si>
@@ -287,11 +292,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -604,9 +609,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,21 +882,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="7.140625" style="20" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="27"/>
@@ -905,7 +907,7 @@
     <col min="10" max="16384" width="11.42578125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="20" customFormat="1">
+    <row r="1" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
@@ -934,7 +936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -953,7 +955,7 @@
       <c r="H2" s="42"/>
       <c r="I2" s="43"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="39"/>
       <c r="B3" s="2">
         <f>B2+C2</f>
@@ -967,7 +969,7 @@
       <c r="H3" s="42"/>
       <c r="I3" s="43"/>
     </row>
-    <row r="4" spans="1:9" ht="28.5">
+    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="2">
         <f t="shared" ref="B4:B27" si="0">B3+C3</f>
@@ -993,7 +995,7 @@
       </c>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
@@ -1019,7 +1021,7 @@
       </c>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
@@ -1037,7 +1039,7 @@
       <c r="H6" s="36"/>
       <c r="I6" s="37"/>
     </row>
-    <row r="7" spans="1:9" ht="57">
+    <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="39"/>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
@@ -1065,7 +1067,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="39"/>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
@@ -1083,7 +1085,7 @@
       <c r="H8" s="36"/>
       <c r="I8" s="37"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="39"/>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
@@ -1111,7 +1113,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
@@ -1139,7 +1141,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="39"/>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
@@ -1157,7 +1159,7 @@
       <c r="H11" s="36"/>
       <c r="I11" s="37"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="39"/>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
@@ -1185,7 +1187,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
@@ -1201,15 +1203,15 @@
       <c r="F13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>26</v>
+      <c r="G13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="I13" s="34"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="40"/>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
@@ -1227,7 +1229,7 @@
       <c r="H14" s="36"/>
       <c r="I14" s="37"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="38">
         <v>2</v>
       </c>
@@ -1246,7 +1248,7 @@
       <c r="H15" s="42"/>
       <c r="I15" s="43"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="39"/>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
@@ -1272,7 +1274,7 @@
       </c>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="39"/>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
@@ -1300,7 +1302,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="39"/>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
@@ -1318,7 +1320,7 @@
       <c r="H18" s="36"/>
       <c r="I18" s="37"/>
     </row>
-    <row r="19" spans="1:9" ht="28.5">
+    <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
       <c r="B19" s="17">
         <f t="shared" si="0"/>
@@ -1346,7 +1348,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="28.5">
+    <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="39"/>
       <c r="B20" s="2">
         <f>B19+C19</f>
@@ -1374,7 +1376,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="39"/>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
@@ -1392,7 +1394,7 @@
       <c r="H21" s="36"/>
       <c r="I21" s="37"/>
     </row>
-    <row r="22" spans="1:9" ht="28.5">
+    <row r="22" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="39"/>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
@@ -1420,7 +1422,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="28.5">
+    <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="39"/>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
@@ -1448,7 +1450,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="39"/>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
@@ -1466,7 +1468,7 @@
       <c r="H24" s="36"/>
       <c r="I24" s="37"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="39"/>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
@@ -1484,15 +1486,15 @@
       <c r="F25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="47">
-        <v>0.9</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>26</v>
+      <c r="G25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39"/>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
@@ -1510,7 +1512,7 @@
       <c r="H26" s="45"/>
       <c r="I26" s="46"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
@@ -1551,14 +1553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="8"/>
@@ -1567,7 +1569,7 @@
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1584,7 +1586,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1601,7 +1603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1618,7 +1620,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1635,7 +1637,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1652,7 +1654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -1669,7 +1671,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -1686,7 +1688,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -1703,7 +1705,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -1720,7 +1722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -1737,7 +1739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -1754,7 +1756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -1771,7 +1773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>12</v>
       </c>

--- a/Planning formation.xlsx
+++ b/Planning formation.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="84">
   <si>
     <t>#</t>
   </si>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t>Custom directives &amp; components</t>
-  </si>
-  <si>
-    <t>a améliorer</t>
   </si>
   <si>
     <t>I18N</t>
@@ -474,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -561,9 +558,6 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -893,7 +887,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -937,7 +931,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="38">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -946,31 +940,31 @@
       <c r="C2" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="2">
         <f>B2+C2</f>
         <v>0.39583333333333337</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="2">
         <f t="shared" ref="B4:B27" si="0">B3+C3</f>
         <v>0.39583333333333337</v>
@@ -996,7 +990,7 @@
       <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -1022,7 +1016,7 @@
       <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>0.43055555555555558</v>
@@ -1030,17 +1024,17 @@
       <c r="C6" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>0.44097222222222227</v>
@@ -1057,8 +1051,8 @@
       <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="31" t="s">
-        <v>83</v>
+      <c r="G7" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>27</v>
@@ -1068,7 +1062,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>0.50347222222222232</v>
@@ -1076,17 +1070,17 @@
       <c r="C8" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>0.54513888888888895</v>
@@ -1114,7 +1108,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>0.58680555555555558</v>
@@ -1142,7 +1136,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>0.61805555555555558</v>
@@ -1150,17 +1144,17 @@
       <c r="C11" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>0.62847222222222221</v>
@@ -1188,7 +1182,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>0.69097222222222221</v>
@@ -1196,10 +1190,10 @@
       <c r="C13" s="21">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="33"/>
+      <c r="D13" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="32"/>
       <c r="F13" s="5" t="s">
         <v>10</v>
       </c>
@@ -1209,10 +1203,10 @@
       <c r="H13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="34"/>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>0.71180555555555558</v>
@@ -1220,17 +1214,17 @@
       <c r="C14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="38">
+      <c r="A15" s="37">
         <v>2</v>
       </c>
       <c r="B15" s="2">
@@ -1239,17 +1233,17 @@
       <c r="C15" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>0.38541666666666669</v>
@@ -1269,13 +1263,13 @@
       <c r="G16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="24" t="s">
-        <v>26</v>
+      <c r="H16" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -1303,7 +1297,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>0.44791666666666669</v>
@@ -1311,17 +1305,17 @@
       <c r="C18" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="17">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
@@ -1349,7 +1343,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="2">
         <f>B19+C19</f>
         <v>0.5</v>
@@ -1377,7 +1371,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -1385,17 +1379,17 @@
       <c r="C21" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
     </row>
     <row r="22" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
@@ -1415,15 +1409,15 @@
       <c r="G22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="31" t="s">
-        <v>83</v>
+      <c r="H22" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="I22" s="23" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>0.64583333333333326</v>
@@ -1451,7 +1445,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
@@ -1459,17 +1453,17 @@
       <c r="C24" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="37"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>0.67708333333333326</v>
@@ -1495,7 +1489,7 @@
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>0.70833333333333326</v>
@@ -1503,17 +1497,17 @@
       <c r="C26" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="46"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="40"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>0.71874999999999989</v>
@@ -1521,14 +1515,14 @@
       <c r="C27" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="37"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/Planning formation.xlsx
+++ b/Planning formation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\formation-angularjs1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Profiles\schassande\git\formation-angularjs1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
   <si>
     <t>#</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>Fin jour 1</t>
-  </si>
-  <si>
-    <t>TODO</t>
   </si>
   <si>
     <t>OK</t>
@@ -284,6 +281,15 @@
   </si>
   <si>
     <t>I18N</t>
+  </si>
+  <si>
+    <t>Real time</t>
+  </si>
+  <si>
+    <t>Real duration</t>
+  </si>
+  <si>
+    <t>non faite</t>
   </si>
 </sst>
 </file>
@@ -314,7 +320,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,12 +353,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -360,12 +360,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -488,7 +482,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -538,15 +532,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -556,9 +544,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -568,13 +553,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -884,16 +869,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="7.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="27"/>
+    <col min="3" max="3" width="11.42578125" style="25"/>
     <col min="4" max="4" width="23.5703125" style="22" customWidth="1"/>
     <col min="5" max="5" width="6.140625" style="20" customWidth="1"/>
     <col min="6" max="8" width="11.42578125" style="20"/>
@@ -901,37 +886,43 @@
     <col min="10" max="16384" width="11.42578125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:13" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="37">
+      <c r="I1" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -940,31 +931,42 @@
       <c r="C2" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="K2" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="L2" s="21">
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
       <c r="B3" s="2">
         <f>B2+C2</f>
         <v>0.39583333333333337</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
-    </row>
-    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
+      <c r="K3" s="2">
+        <f>K2+L2</f>
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
       <c r="B4" s="2">
         <f t="shared" ref="B4:B27" si="0">B3+C3</f>
         <v>0.39583333333333337</v>
@@ -973,7 +975,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -982,15 +984,22 @@
         <v>11</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="23"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K14" si="1">K3+L3</f>
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="L4" s="21">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -1008,15 +1017,22 @@
         <v>10</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="23"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="L5" s="21">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="35"/>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>0.43055555555555558</v>
@@ -1024,17 +1040,24 @@
       <c r="C6" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="K6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="L6" s="21">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>0.44097222222222227</v>
@@ -1052,17 +1075,24 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
+        <v>72</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.44791666666666663</v>
+      </c>
+      <c r="L7" s="21">
+        <v>7.2916666666666671E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>0.50347222222222232</v>
@@ -1070,17 +1100,24 @@
       <c r="C8" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.52083333333333326</v>
+      </c>
+      <c r="L8" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>0.54513888888888895</v>
@@ -1098,17 +1135,24 @@
         <v>11</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
+        <v>73</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.56249999999999989</v>
+      </c>
+      <c r="L9" s="21">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>0.58680555555555558</v>
@@ -1126,17 +1170,24 @@
         <v>10</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+        <v>74</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.62499999999999989</v>
+      </c>
+      <c r="L10" s="21">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="35"/>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>0.61805555555555558</v>
@@ -1144,17 +1195,24 @@
       <c r="C11" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="K11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.65624999999999989</v>
+      </c>
+      <c r="L11" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>0.62847222222222221</v>
@@ -1171,18 +1229,25 @@
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="30">
-        <v>0.5</v>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+        <v>75</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="L12" s="21">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>0.69097222222222221</v>
@@ -1190,23 +1255,33 @@
       <c r="C13" s="21">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="32"/>
+      <c r="D13" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="29"/>
       <c r="F13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
+        <v>26</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.72916666666666652</v>
+      </c>
+      <c r="L13" s="21">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="36"/>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>0.71180555555555558</v>
@@ -1214,17 +1289,24 @@
       <c r="C14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="37">
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
+      <c r="K14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="34">
         <v>2</v>
       </c>
       <c r="B15" s="2">
@@ -1233,17 +1315,23 @@
       <c r="C15" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="K15" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="L15" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>0.38541666666666669</v>
@@ -1260,16 +1348,23 @@
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
+      <c r="K16" s="2">
+        <f t="shared" ref="K16:K19" si="2">K15+L15</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="L16" s="21">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -1287,17 +1382,24 @@
         <v>10</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
+        <v>76</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L17" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>0.44791666666666669</v>
@@ -1305,22 +1407,29 @@
       <c r="C18" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
-    </row>
-    <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="33"/>
+      <c r="K18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="L18" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="35"/>
       <c r="B19" s="17">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D19" s="19" t="s">
@@ -1332,18 +1441,25 @@
       <c r="F19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
+        <v>77</v>
+      </c>
+      <c r="K19" s="17">
+        <f t="shared" si="2"/>
+        <v>0.46875000000000006</v>
+      </c>
+      <c r="L19" s="24">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="35"/>
       <c r="B20" s="2">
         <f>B19+C19</f>
         <v>0.5</v>
@@ -1361,17 +1477,24 @@
         <v>10</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+        <v>78</v>
+      </c>
+      <c r="K20" s="2">
+        <f>K19+L19</f>
+        <v>0.51041666666666674</v>
+      </c>
+      <c r="L20" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -1379,17 +1502,24 @@
       <c r="C21" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
-    </row>
-    <row r="22" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="33"/>
+      <c r="K21" s="2">
+        <f t="shared" ref="K21:K27" si="3">K20+L20</f>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="L21" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="35"/>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
@@ -1398,7 +1528,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" s="3">
         <v>11</v>
@@ -1407,17 +1537,24 @@
         <v>10</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
+        <v>79</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="3"/>
+        <v>0.59375</v>
+      </c>
+      <c r="L22" s="21">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="35"/>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>0.64583333333333326</v>
@@ -1434,18 +1571,25 @@
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
+        <v>80</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="3"/>
+        <v>0.65625</v>
+      </c>
+      <c r="L23" s="21">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="35"/>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
@@ -1453,17 +1597,24 @@
       <c r="C24" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="33"/>
+      <c r="K24" s="2">
+        <f t="shared" si="3"/>
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="L24" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="35"/>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>0.67708333333333326</v>
@@ -1481,15 +1632,22 @@
         <v>10</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I25" s="23"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
+      <c r="K25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.6875</v>
+      </c>
+      <c r="L25" s="21">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="35"/>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>0.70833333333333326</v>
@@ -1497,17 +1655,24 @@
       <c r="C26" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D26" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
+      <c r="D26" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="K26" s="2">
+        <f t="shared" si="3"/>
+        <v>0.71875</v>
+      </c>
+      <c r="L26" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="36"/>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>0.71874999999999989</v>
@@ -1515,14 +1680,21 @@
       <c r="C27" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="33"/>
+      <c r="K27" s="2">
+        <f t="shared" si="3"/>
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1568,16 +1740,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1585,16 +1757,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1602,16 +1774,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1619,16 +1791,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1636,16 +1808,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1653,16 +1825,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="D6" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1670,16 +1842,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>67</v>
-      </c>
       <c r="D7" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1687,16 +1859,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="E8" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1704,16 +1876,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="D9" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1721,16 +1893,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="D10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1741,10 +1913,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>8</v>
@@ -1755,16 +1927,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>60</v>
-      </c>
       <c r="D12" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1772,16 +1944,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="D13" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
